--- a/server/uploads/import.xlsx
+++ b/server/uploads/import.xlsx
@@ -65,9 +65,6 @@
     <t>Không</t>
   </si>
   <si>
-    <t>K64-CA-CLC-4</t>
-  </si>
-  <si>
     <t>Trần Duy Linh</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>0833477854</t>
+  </si>
+  <si>
+    <t>K65-CA-CLC-4</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -555,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>19021320</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4">
         <v>37086</v>
@@ -572,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="3">
         <v>78</v>
@@ -584,10 +584,10 @@
         <v>3.1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>19021206</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
         <v>37087</v>
@@ -604,10 +604,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3">
         <v>82</v>
@@ -616,10 +616,10 @@
         <v>3.5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -627,19 +627,19 @@
         <v>19021235</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>37088</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="3">
         <v>80</v>
@@ -648,10 +648,10 @@
         <v>3.7</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -659,7 +659,7 @@
         <v>19021269</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4">
         <v>37089</v>
@@ -668,10 +668,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="3">
         <v>80</v>
@@ -683,7 +683,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
         <v>19021275</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4">
         <v>37090</v>
@@ -700,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="3">
         <v>50</v>
@@ -712,10 +712,10 @@
         <v>1.6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -723,7 +723,7 @@
         <v>19021306</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4">
         <v>37091</v>
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3">
         <v>82</v>
@@ -747,7 +747,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
